--- a/data/trans_dic/P33b_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R3-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 13,44</t>
+          <t>3,73; 13,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,41; 21,37</t>
+          <t>11,41; 21,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 16,38</t>
+          <t>9,23; 16,78</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,38; 20,0</t>
+          <t>13,62; 20,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,61; 27,43</t>
+          <t>21,55; 27,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,53; 22,82</t>
+          <t>18,64; 22,81</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,27; 17,66</t>
+          <t>12,56; 17,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,18; 24,66</t>
+          <t>20,26; 24,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,87; 20,49</t>
+          <t>16,94; 20,47</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,58; 15,99</t>
+          <t>10,68; 15,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,09; 20,32</t>
+          <t>10,99; 20,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 17,24</t>
+          <t>11,9; 17,2</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,59; 21,8</t>
+          <t>16,74; 22,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,02; 25,88</t>
+          <t>21,01; 26,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,65; 23,27</t>
+          <t>19,77; 23,29</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,41; 17,21</t>
+          <t>14,42; 17,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,27; 22,86</t>
+          <t>19,3; 22,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,69; 19,83</t>
+          <t>17,62; 19,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R3-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P33b_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R3-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,73; 13,95</t>
+          <t>4,09; 13,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,41; 21,72</t>
+          <t>11,41; 21,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,23; 16,78</t>
+          <t>9,16; 16,38</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,62; 20,13</t>
+          <t>13,38; 20,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,55; 27,33</t>
+          <t>21,61; 27,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,64; 22,81</t>
+          <t>18,53; 22,82</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,56; 17,9</t>
+          <t>12,27; 17,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,26; 24,56</t>
+          <t>20,18; 24,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,94; 20,47</t>
+          <t>16,87; 20,49</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,68; 15,85</t>
+          <t>10,58; 15,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,99; 20,23</t>
+          <t>11,09; 20,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,9; 17,2</t>
+          <t>11,86; 17,24</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,74; 22,05</t>
+          <t>16,59; 21,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,01; 26,08</t>
+          <t>21,02; 25,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,77; 23,29</t>
+          <t>19,65; 23,27</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,42; 17,13</t>
+          <t>14,41; 17,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,3; 22,82</t>
+          <t>19,27; 22,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,62; 19,86</t>
+          <t>17,69; 19,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R3-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>18,68%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 13,44</t>
+          <t>12,16; 17,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,41; 21,37</t>
+          <t>20,19; 25,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 16,38</t>
+          <t>16,87; 20,71</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>22,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>16,63%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,38; 20,0</t>
+          <t>5,57; 16,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,61; 27,43</t>
+          <t>19,89; 24,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,53; 22,82</t>
+          <t>11,6; 19,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>13,41%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,27; 17,66</t>
+          <t>10,12; 15,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,18; 24,66</t>
+          <t>7,74; 19,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,87; 20,49</t>
+          <t>8,51; 16,15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>20,45%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,58; 15,99</t>
+          <t>16,11; 21,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,09; 20,32</t>
+          <t>17,6; 24,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 17,24</t>
+          <t>17,73; 22,27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>17,35%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,59; 21,8</t>
+          <t>11,21; 16,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,02; 25,88</t>
+          <t>16,51; 21,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,65; 23,27</t>
+          <t>15,15; 18,8</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>15,79%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>21,48%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>18,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>14,41; 17,21</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>19,27; 22,86</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>17,69; 19,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P33b_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R3-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,16; 17,78</t>
+          <t>11,96; 17,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,19; 25,31</t>
+          <t>19,99; 25,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,87; 20,71</t>
+          <t>16,98; 20,96</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,57; 16,04</t>
+          <t>6,63; 16,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,89; 24,34</t>
+          <t>20,05; 24,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,6; 19,35</t>
+          <t>11,35; 19,22</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,12; 15,44</t>
+          <t>10,06; 15,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,74; 19,13</t>
+          <t>7,54; 18,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,51; 16,15</t>
+          <t>9,06; 15,94</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,11; 21,46</t>
+          <t>16,16; 21,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,6; 24,6</t>
+          <t>17,91; 24,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,73; 22,27</t>
+          <t>18,01; 22,33</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,21; 16,11</t>
+          <t>11,35; 16,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,51; 21,86</t>
+          <t>16,13; 21,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,15; 18,8</t>
+          <t>15,08; 18,61</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se despierta demasiado temprano (de forma involuntaria)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>93021</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>151598</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>244619</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>75865; 113414</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>135020; 168931</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>222359; 274515</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>146071</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>211555</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>357626</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>79062; 193606</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>192147; 231372</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>243968; 413288</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>87515</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>132154</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>219669</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>70868; 106732</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>70356; 177238</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>148472; 261077</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>173723</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>239190</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>412914</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>149730; 200677</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>195736; 267282</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>363763; 450906</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1282</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1877</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>500330</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>734497</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1234827</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>392365; 556975</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>590412; 802979</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1073051; 1324385</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>